--- a/CPC_データ.xlsx
+++ b/CPC_データ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="720" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="6760" yWindow="1500" windowWidth="25040" windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>入院</t>
     <rPh sb="0" eb="2">
@@ -289,6 +289,86 @@
     <rPh sb="0" eb="3">
       <t>ゲリベン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD toxin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GDH抗原</t>
+    <rPh sb="3" eb="5">
+      <t>コウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陽性</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>normal flora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C. difficile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少数</t>
+    <rPh sb="0" eb="2">
+      <t>ショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enterococcus species</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yeast species</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陰性</t>
+    <rPh sb="0" eb="2">
+      <t>インセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>normal flora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MRSA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Candida glabrata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MRSA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -296,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,6 +387,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -330,15 +428,87 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="37">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -667,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -679,95 +849,135 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1">
         <v>42397</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>42398</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2">
+        <f>A2-$A$1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>42523</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <f t="shared" ref="E3:E32" si="0">A3-$A$1</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>42543</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>42557</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>42565</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>42590</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>42389</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>42390</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>42391</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>42397</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>42430</v>
       </c>
@@ -777,16 +987,24 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>42461</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>42516</v>
       </c>
@@ -796,16 +1014,24 @@
       <c r="C18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>42522</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>42541</v>
       </c>
@@ -815,8 +1041,12 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>42565</v>
       </c>
@@ -826,8 +1056,12 @@
       <c r="C21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>42580</v>
       </c>
@@ -837,72 +1071,108 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>42424</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>42458</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>42528</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>42555</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>42531</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>42530</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>42529</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>42523</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -912,8 +1182,16 @@
       <c r="C35" s="1">
         <v>42401</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35">
+        <f>B35-$A$1</f>
+        <v>-4</v>
+      </c>
+      <c r="G35">
+        <f>C35-$A$1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="B36" s="1">
         <v>42421</v>
       </c>
@@ -923,8 +1201,16 @@
       <c r="D36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36">
+        <f t="shared" ref="F36:F40" si="1">B36-$A$1</f>
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G40" si="2">C36-$A$1</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="B37" s="1">
         <v>42455</v>
       </c>
@@ -934,16 +1220,32 @@
       <c r="D37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="B38" s="1">
         <v>42515</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>-42397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="B39" s="1">
         <v>42529</v>
       </c>
@@ -953,8 +1255,16 @@
       <c r="D39" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="B40" s="1">
         <v>42541</v>
       </c>
@@ -963,11 +1273,311 @@
       </c>
       <c r="D40" t="s">
         <v>30</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>42467</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>42467</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>42479</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>42485</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>42492</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>42492</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>42495</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>42506</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>42506</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>42514</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>42520</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>42530</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>42585</v>
+      </c>
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
